--- a/DataFiles/ExcelFiles/LoginData.xlsx
+++ b/DataFiles/ExcelFiles/LoginData.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{EB484B7A-7EC8-4F23-AB25-77D18D82F600}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961C6CEA-E091-4772-AC72-0F94BC004E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="22350" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Username</t>
   </si>
@@ -36,16 +35,30 @@
   </si>
   <si>
     <t>AutoM8</t>
+  </si>
+  <si>
+    <t>Password@123</t>
+  </si>
+  <si>
+    <t>EKPC-ESAP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -68,13 +81,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -353,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,7 +405,18 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{C095303A-1119-4FFB-B667-0C8B274EE382}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DataFiles/ExcelFiles/LoginData.xlsx
+++ b/DataFiles/ExcelFiles/LoginData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961C6CEA-E091-4772-AC72-0F94BC004E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3272110-BDBB-42E8-9F72-97F760F7D022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -37,10 +37,13 @@
     <t>AutoM8</t>
   </si>
   <si>
-    <t>Password@123</t>
-  </si>
-  <si>
     <t>EKPC-ESAP</t>
+  </si>
+  <si>
+    <t>Password123!</t>
+  </si>
+  <si>
+    <t>ESAEagle</t>
   </si>
 </sst>
 </file>
@@ -369,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,15 +410,24 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{C095303A-1119-4FFB-B667-0C8B274EE382}"/>
+    <hyperlink ref="B4" r:id="rId1" display="Password@123" xr:uid="{B47AA08A-A811-4B4F-B149-975D576A2ACA}"/>
+    <hyperlink ref="B5" r:id="rId2" display="Password@123" xr:uid="{2D010700-5985-426B-B331-30DBC1574498}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
